--- a/20230215_VXI-11 通信の概要/306j_VXI_11_Figure_B_12.xlsx
+++ b/20230215_VXI-11 通信の概要/306j_VXI_11_Figure_B_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Qiita\20230215_VXI-11 通信の概要\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64859545-ACBE-4402-B91C-3B14A536929C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7060E4-5183-438F-A623-748FE30A6B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EDF45EBB-E54E-4B5B-AED4-E73175C7B73C}"/>
   </bookViews>
@@ -532,7 +532,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
